--- a/Test_file/excelfile.xlsx
+++ b/Test_file/excelfile.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,51 +424,748 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Rajesh Gujjula, MD</t>
+          <t>Vick S Dicarlo, MD</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Phone: 251-633-1000</t>
+          <t>Phone: 205-933-2125</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>13833 Tapia Ave, Bayou La Batre, AL 36509</t>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Neelam A Khan, MD</t>
+          <t>Mackenzie D Rodgers, MD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phone: 251-824-4985</t>
+          <t>Phone: 205-933-2125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13833 Tapia Ave, Bayou La Batre, AL 36509</t>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sonia S Grevenitis, MD</t>
+          <t>Carrie I McLaulin, MD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phone: 251-824-2174</t>
+          <t>Phone: 205-933-2125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12701 Padgett Switch Rd, Irvington, AL 36544</t>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stephanie C Denton, MD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mary N Doyle, MD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anne Laura R Cook, MD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phone: 205-518-8849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1130 22nd St Ste 1000, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sadri M Avsar, MD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Andrea R White, MD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prasanth Patcha, MD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1720 University Blvd, Birmingham, AL 35233</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mark A Newbrough, MD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>619 19th St S, Birmingham, AL 35249</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bennettt B Pearce, MD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-9999</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2000 6th Ave, Birmingham, AL 35233</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sherry S Collawn, MD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phone: 877-872-5788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1201 11th Ave, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>George L Joe, MD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Phone: 205-408-2366</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1944 28th Ave, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Joseph A Ramsey, MD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Phone: 205-408-2306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1944 28th Ave, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kris F Lay, MD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phone: 205-582-3510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1944 28th Ave, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jenna L Johnson, MD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>125 20th St S Ste 103, Birmingham, AL 35233</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bryan Freeman, MD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Phone: 205-290-0088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2757 Green Springs Hwy, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anne Laura R Cook, MD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Phone: 205-518-8849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1130 22nd St Ste 1000, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Andrea R White, MD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sadri M Avsar, MD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>David H Farrar</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Phone: 205-313-2650</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2660 10th Ave Ste 400, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jason C Fain, MD</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-9258</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2660 10th Ave S Ste 528, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Neal D Daniel, MD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-9258</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2660 10th Ave S Ste 528, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Adeeb E Thomas Jr, MD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Phone: 205-661-0003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2831 Highland Ave S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>John W Farley, MD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Phone: 205-930-2060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2700 10th Ave Ste 207, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Munish K Goyal, MD</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Phone: 205-939-7100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2700 10th Ave Ste 305, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Tim L Stone, MD</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-4020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2700 10th Ave S Ste 306, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Charlie E Sharp, MD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-4020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2700 10th Ave S Ste 306, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Robert P Goolsby, MD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-4020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2700 10th Ave S Ste 306, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ashley E Shea, MD</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Phone: 205-822-8816</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>930 20th St S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chere M Stewart, MD</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1958</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1016 18th St Ste A, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brian E Brocato, DO, MD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Phone: 205-939-7000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>810 Saint Vincents Dr, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Bryan L Pruitt, MD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Phone: 205-930-2456</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>810 Saint Vincents Dr, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Charles A Leath, MD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>810 Saint Vincents Dr, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Twyla N Norsworthy, MD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Phone: 205-939-7000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>810 Saint Vincents Dr, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mark R Benfield, MD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Phone: 205-558-3200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1425 Richard Arrington Jr Blvd S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vick S Dicarlo, MD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mackenzie D Rodgers, MD</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Carrie I McLaulin, MD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Stephanie C Denton, MD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mary N Doyle, MD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kimberlly L Stringer, MD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-5471</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>930 20th St S Ste 101, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Snehal A Khatri, MD</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-5471</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>930 20th St S Ste 101, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ada M Peralta-Carcelen, MD</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-5471</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>930 20th St S Ste 101, Birmingham, AL 35205</t>
         </is>
       </c>
     </row>

--- a/Test_file/excelfile.xlsx
+++ b/Test_file/excelfile.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,788 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Carrie I McLaulin, MD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mary N Doyle, MD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vick S Dicarlo, MD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stephanie C Denton, MD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anne Laura R Cook, MD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phone: 205-518-8849</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1130 22nd St Ste 1000, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Andrea R White, MD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sadri M Avsar, MD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Prasanth Patcha, MD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1720 University Blvd, Birmingham, AL 35233</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bennettt Pearce, MD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-9999</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2000 6th Ave, Birmingham, AL 35233</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mark A Newbrough, MD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>619 19th St S, Birmingham, AL 35249</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sherry S Collawn, MD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Phone: 877-872-5788</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1201 11th Ave, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Joseph A Ramsey, MD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Phone: 205-408-2306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1944 28th Ave, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kris F Lay, MD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phone: 205-582-3510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1944 28th Ave, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>George L Joe, MD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phone: 205-408-2366</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1944 28th Ave, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jenna L Johnson, MD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Phone: 800-822-8816</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>125 20th St S Ste 103, Birmingham, AL 35233</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bryan Freeman, MD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Phone: 205-290-0088</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2757 Green Springs Hwy, Birmingham, AL 35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Anne Laura R Cook, MD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Phone: 205-518-8849</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1130 22nd St Ste 1000, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Andrea R White, MD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sadri M Avsar, MD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1828</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>39 Hanover Cir, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>David H Farrar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Phone: 205-313-2650</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2660 10th Ave Ste 400, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jason C Fain, MD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-9258</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2660 10th Ave S Ste 528, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Neal D Daniel, MD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-9258</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2660 10th Ave S Ste 528, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Adeeb E Thomas Jr, MD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Phone: 205-661-0003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2831 Highland Ave S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>John W Farley, MD</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Phone: 205-930-2060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2700 10th Ave Ste 207, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Munish K Goyal, MD</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Phone: 205-939-7100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2700 10th Ave Ste 305, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Charlie E Sharp, MD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-4020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2700 10th Ave S Ste 306, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tim L Stone, MD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-4020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2700 10th Ave S Ste 306, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Robert P Goolsby, MD</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-4020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2700 10th Ave S Ste 306, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ashley E Shea, MD</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Phone: 205-822-8816</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>930 20th St S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jaclyn A Wall, MD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Phone: 205-930-1800</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>806 Saint Vincents Dr Ste 500, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chere M Stewart, MD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-1958</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1016 18th St Ste A, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mack N Barnes III, MD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Phone: 205-939-7880</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2728 10th Ave Ste 200, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Twyla N Norsworthy, MD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Phone: 205-939-7000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>810 Saint Vincents Dr, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Bryan L Pruitt, MD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Phone: 205-930-2456</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>810 Saint Vincents Dr, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mark R Benfield, MD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Phone: 205-558-3200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1425 Richard Arrington Jr Blvd S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mackenzie D Rodgers, MD</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Carrie I McLaulin, MD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mary N Doyle, MD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Vick S Dicarlo, MD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Stephanie C Denton, MD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Phone: 205-933-2125</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2101 Highland Ave S Ste 350, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kimberlly L Stringer, MD</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-5471</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>930 20th St S Ste 101, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Justin C Schwartz, MD</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-5471</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>930 20th St S, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ada M Peralta-Carcelen, MD</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Phone: 205-934-5471</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>930 20th St S Ste 101, Birmingham, AL 35205</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Deedee D Kidd, DO, MD</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Phone: 334-513-7819</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3039 Vaughn Rd, Montgomery, AL 36106</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Timothy P Taylor Jr, MD</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Phone: 334-513-7819</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3039 Vaughn Rd, Montgomery, AL 36106</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bernard T Hale, MD</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Phone: 334-244-6954</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2921 Zelda Rd, Montgomery, AL 36106</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
